--- a/Output/Modelling/XGBoost/Tables/exclude_previous_Most_Complex_Model_Permutation_Importance_Top_15.xlsx
+++ b/Output/Modelling/XGBoost/Tables/exclude_previous_Most_Complex_Model_Permutation_Importance_Top_15.xlsx
@@ -457,10 +457,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.03581663685152058</v>
+        <v>0.04381932021466908</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00704300622741117</v>
+        <v>0.005761418071225349</v>
       </c>
     </row>
     <row r="3">
@@ -470,62 +470,62 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03003846153846156</v>
+        <v>0.03516905187835424</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006781304059983818</v>
+        <v>0.005735206279597711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Inventory (Balance Sheet)</t>
+          <t>Dividends Paid</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0276788908765653</v>
+        <v>0.02145527728085871</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004675180095395534</v>
+        <v>0.004481103176827046</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sector: Utilities</t>
+          <t>Debt Ratio</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.02496511627906979</v>
+        <v>0.009987477638640463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003303562734749551</v>
+        <v>0.0034128380221998</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Debt Ratio</t>
+          <t>Common Stock</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0241243291592129</v>
+        <v>0.009693202146690552</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004996163014555066</v>
+        <v>0.00224798844522935</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dividends Paid</t>
+          <t>Ratio E</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0220939177101968</v>
+        <v>0.009534883720930268</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005006835663263197</v>
+        <v>0.003463329218349866</v>
       </c>
     </row>
     <row r="8">
@@ -535,114 +535,114 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.01851520572450806</v>
+        <v>0.00928801431127016</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004804477437412894</v>
+        <v>0.003028034457326175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Common Stock</t>
+          <t>Total Current Liabilities</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.01742128801431129</v>
+        <v>0.006888193202146724</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003462990894039529</v>
+        <v>0.002785130306217287</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total Non-Current Assets</t>
+          <t>Inventory (Balance Sheet)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01489713774597497</v>
+        <v>0.006802325581395382</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003717743987220961</v>
+        <v>0.002993547201657388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Research and Development Expenses</t>
+          <t>Total Current Assets</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01290608228980323</v>
+        <v>0.006684257602862287</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002746274887036246</v>
+        <v>0.003242970278133683</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Ratio E</t>
+          <t>Selling General and Administrative Expenses</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01290518783542041</v>
+        <v>0.006031305903398957</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003909984950012524</v>
+        <v>0.002394892381502501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Total Current Assets</t>
+          <t>Interest Expense</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01107960644007157</v>
+        <v>0.005973166368515239</v>
       </c>
       <c r="C13" t="n">
-        <v>0.003804873848835509</v>
+        <v>0.002740056437536323</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Other Current Liabilities</t>
+          <t>Net Property Plant Equipment</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01088282647584974</v>
+        <v>0.005728980322003612</v>
       </c>
       <c r="C14" t="n">
-        <v>0.003305019353604151</v>
+        <v>0.001914837572604547</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Debt Ratio (Alternative Definition)</t>
+          <t>Ratio C</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.009271019677996435</v>
+        <v>0.005677101967799679</v>
       </c>
       <c r="C15" t="n">
-        <v>0.003599417690836802</v>
+        <v>0.002475973653149052</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Weighted Average Shares Outstanding (Diluted)</t>
+          <t>Total Non-Current Assets</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.008567978533094822</v>
+        <v>0.005588550983899855</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003387817146798987</v>
+        <v>0.00341986957161812</v>
       </c>
     </row>
   </sheetData>
